--- a/Auto-MPG.xlsx
+++ b/Auto-MPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavje\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0265A8-C36C-4616-97AD-F08D6125C721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE8DB67-E9D5-4610-87B4-99F97AAC25ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,17 +681,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFAD94F-5CAC-42E0-B356-1F75B00638FE}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
